--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="6975" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Table 0" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="378">
   <si>
     <t>FL146</t>
   </si>
@@ -81,9 +81,6 @@
 Απόθεμ.:
 300
 - Μin.:</t>
-  </si>
-  <si>
-    <t>Μάτσο</t>
   </si>
   <si>
     <t>1
@@ -2257,182 +2254,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -2468,172 +2490,172 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
         <v>338</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>339</v>
-      </c>
-      <c r="C2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
         <v>341</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
         <v>344</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>345</v>
-      </c>
-      <c r="C4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
         <v>349</v>
-      </c>
-      <c r="B6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" t="s">
         <v>351</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>352</v>
-      </c>
-      <c r="C8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
         <v>354</v>
-      </c>
-      <c r="B9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="s">
         <v>356</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>357</v>
-      </c>
-      <c r="C10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" t="s">
         <v>359</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>360</v>
-      </c>
-      <c r="C11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" t="s">
         <v>362</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>363</v>
-      </c>
-      <c r="C12" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
         <v>365</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>366</v>
-      </c>
-      <c r="C14" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" t="s">
         <v>368</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>369</v>
-      </c>
-      <c r="C15" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" t="s">
         <v>371</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>372</v>
-      </c>
-      <c r="C16" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" t="s">
         <v>374</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>375</v>
-      </c>
-      <c r="C17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2662,60 +2684,60 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2723,12 +2745,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2767,46 +2789,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2814,54 +2836,54 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2869,57 +2891,57 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
         <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -2927,18 +2949,18 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2953,6 +2975,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -2967,172 +2993,172 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
         <v>112</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
         <v>124</v>
       </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
         <v>129</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
         <v>132</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3147,6 +3173,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -3161,161 +3192,161 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
         <v>147</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
         <v>150</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
         <v>154</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
         <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
         <v>159</v>
       </c>
-      <c r="B11" t="s">
-        <v>160</v>
-      </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
         <v>161</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
         <v>164</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
         <v>170</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>171</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3347,45 +3378,45 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>183</v>
-      </c>
-      <c r="C6" t="s">
-        <v>184</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3393,57 +3424,57 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
         <v>185</v>
       </c>
-      <c r="B7" t="s">
-        <v>186</v>
-      </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>188</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
         <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
         <v>192</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>193</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
         <v>195</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -3451,57 +3482,57 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s">
         <v>198</v>
       </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
         <v>200</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
         <v>203</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>204</v>
-      </c>
-      <c r="C14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
         <v>206</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" t="s">
         <v>209</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>210</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3509,18 +3540,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
         <v>211</v>
       </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3549,163 +3580,163 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>219</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" t="s">
         <v>221</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
         <v>223</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>224</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>227</v>
-      </c>
-      <c r="C7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
         <v>229</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
         <v>232</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>233</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
         <v>235</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>236</v>
-      </c>
-      <c r="C11" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="s">
         <v>238</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
         <v>241</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>242</v>
-      </c>
-      <c r="C13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
         <v>244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
         <v>246</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>247</v>
-      </c>
-      <c r="C15" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" t="s">
         <v>249</v>
-      </c>
-      <c r="C16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3734,172 +3765,172 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
         <v>255</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
         <v>258</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>259</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>262</v>
-      </c>
-      <c r="C5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
         <v>264</v>
-      </c>
-      <c r="C6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
         <v>266</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>267</v>
-      </c>
-      <c r="C7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s">
         <v>269</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>270</v>
-      </c>
-      <c r="C8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
         <v>272</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>273</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" t="s">
         <v>275</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>276</v>
-      </c>
-      <c r="C10" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
         <v>278</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>279</v>
-      </c>
-      <c r="C11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
         <v>281</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>282</v>
-      </c>
-      <c r="C12" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" t="s">
         <v>284</v>
       </c>
-      <c r="B13" t="s">
-        <v>285</v>
-      </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
         <v>286</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>287</v>
-      </c>
-      <c r="C14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
         <v>289</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>290</v>
-      </c>
-      <c r="C15" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
         <v>292</v>
       </c>
-      <c r="B16" t="s">
-        <v>293</v>
-      </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3928,166 +3959,166 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
         <v>295</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
         <v>301</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>302</v>
-      </c>
-      <c r="C4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
         <v>304</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
         <v>307</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>308</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
         <v>310</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>311</v>
-      </c>
-      <c r="C7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" t="s">
         <v>313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
         <v>315</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" t="s">
         <v>317</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>318</v>
-      </c>
-      <c r="C10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
         <v>320</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>321</v>
-      </c>
-      <c r="C11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
         <v>323</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>324</v>
-      </c>
-      <c r="C12" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s">
         <v>326</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>327</v>
-      </c>
-      <c r="C13" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
         <v>329</v>
-      </c>
-      <c r="B14" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" t="s">
         <v>331</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>332</v>
-      </c>
-      <c r="C15" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
         <v>334</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>335</v>
-      </c>
-      <c r="C16" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
